--- a/VPS5/uebung02/Ausarbeitung/auswertung.xlsx
+++ b/VPS5/uebung02/Ausarbeitung/auswertung.xlsx
@@ -24,23 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>00:03:07.4319</t>
-  </si>
-  <si>
-    <t>00:01:18.8208</t>
-  </si>
-  <si>
-    <t>00:02:13.6162</t>
-  </si>
-  <si>
-    <t>00:05:04.3024</t>
-  </si>
-  <si>
-    <t>00:07:09:1210</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -74,9 +58,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -391,85 +376,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="39.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>222</v>
       </c>
       <c r="B1">
         <v>0.55500000000000005</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="C1" s="1">
+        <v>187</v>
       </c>
       <c r="E1">
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>67</v>
       </c>
       <c r="B2">
         <v>0.16800000000000001</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
+      <c r="C2" s="2">
+        <v>78.207999999999998</v>
       </c>
       <c r="E2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>142</v>
       </c>
       <c r="B3">
         <v>0.35599999999999998</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="C3">
+        <v>133.61000000000001</v>
       </c>
       <c r="E3">
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>239</v>
       </c>
       <c r="B4">
         <v>0.59799999999999998</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
+      <c r="C4" s="2">
+        <v>304.30200000000002</v>
       </c>
       <c r="E4">
         <v>761</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>310</v>
       </c>
       <c r="B5">
         <v>0.77500000000000002</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
+      <c r="C5">
+        <v>429.12</v>
       </c>
       <c r="E5">
         <v>1073</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>AVERAGE(A1:A5)</f>
         <v>196</v>
@@ -478,16 +466,24 @@
         <f>AVERAGE(B1:B5)</f>
         <v>0.4904</v>
       </c>
-      <c r="C6" t="e">
+      <c r="C6" s="1">
         <f>AVERAGE(C1:C5)</f>
-        <v>#DIV/0!</v>
+        <v>226.44800000000001</v>
       </c>
       <c r="E6">
         <f>AVERAGE(E1:E5)</f>
         <v>530.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <f>C6/60</f>
+        <v>3.7741333333333333</v>
+      </c>
+      <c r="H6" s="1">
+        <f>C6-180</f>
+        <v>46.448000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>_xlfn.STDEV.P(A1:A5)</f>
         <v>83.75917860151209</v>
@@ -496,9 +492,9 @@
         <f t="shared" ref="B8:E8" si="0">_xlfn.STDEV.P(B1:B5)</f>
         <v>0.2091665365205439</v>
       </c>
-      <c r="C8" t="e">
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>125.92642411185987</v>
       </c>
       <c r="D8" t="e">
         <f t="shared" si="0"/>
@@ -509,62 +505,77 @@
         <v>361.81243759716165</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>35</v>
       </c>
       <c r="B11">
         <v>8.7499999999999994E-2</v>
       </c>
+      <c r="C11">
+        <v>311.07040000000001</v>
+      </c>
       <c r="E11">
         <v>469</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>30</v>
       </c>
       <c r="B12">
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="C12">
+        <v>220.0223</v>
+      </c>
       <c r="E12">
         <v>550</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>41</v>
       </c>
       <c r="B13">
         <v>0.10299999999999999</v>
       </c>
+      <c r="C13">
+        <v>358.6884</v>
+      </c>
       <c r="E13">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>40</v>
       </c>
       <c r="B14">
         <v>0.1</v>
       </c>
+      <c r="C14">
+        <v>330.31389999999999</v>
+      </c>
       <c r="E14">
         <v>826</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>37</v>
       </c>
       <c r="B15">
         <v>9.2999999999999999E-2</v>
       </c>
+      <c r="C15">
+        <v>367.20780000000002</v>
+      </c>
       <c r="E15">
         <v>918</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>AVERAGE(A11:A15)</f>
         <v>36.6</v>
@@ -573,9 +584,9 @@
         <f t="shared" ref="B16:E16" si="1">AVERAGE(B11:B15)</f>
         <v>9.1699999999999976E-2</v>
       </c>
-      <c r="C16" t="e">
+      <c r="C16">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>317.46055999999999</v>
       </c>
       <c r="D16" t="e">
         <f t="shared" si="1"/>
@@ -585,8 +596,16 @@
         <f t="shared" si="1"/>
         <v>573.20000000000005</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <f>C16/60</f>
+        <v>5.2910093333333332</v>
+      </c>
+      <c r="H16">
+        <f>C16-300</f>
+        <v>17.460559999999987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>_xlfn.STDEV.P(A11:A15)</f>
         <v>3.9293765408776999</v>
@@ -595,9 +614,9 @@
         <f t="shared" ref="B17:E17" si="2">_xlfn.STDEV.P(B11:B15)</f>
         <v>9.947864092356885E-3</v>
       </c>
-      <c r="C17" t="e">
+      <c r="C17">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>52.677850534151652</v>
       </c>
       <c r="D17" t="e">
         <f t="shared" si="2"/>
@@ -606,6 +625,10 @@
       <c r="E17">
         <f t="shared" si="2"/>
         <v>288.19396246278302</v>
+      </c>
+      <c r="G17">
+        <f>E17/60</f>
+        <v>4.8032327077130503</v>
       </c>
     </row>
   </sheetData>
